--- a/Documenten/KT2/W 2.1/2-1_genormaliseerde database.xlsx
+++ b/Documenten/KT2/W 2.1/2-1_genormaliseerde database.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sample data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -55,9 +55,6 @@
     <t>koffie 16st</t>
   </si>
   <si>
-    <t>tbl_lists (R1)</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -70,35 +67,69 @@
     <t>· user</t>
   </si>
   <si>
-    <t>tbl_users (R1)</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>fav</t>
-  </si>
-  <si>
-    <t>tbl_products (R1)</t>
+    <t>amt</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>tbl_users</t>
+  </si>
+  <si>
+    <t>tbl_l_regels</t>
+  </si>
+  <si>
+    <t>Inventariseer de gegevens aan de hand van de gewenste informatie, uitgaande van een uniek sleutelveld.</t>
+  </si>
+  <si>
+    <t>tbl_list</t>
+  </si>
+  <si>
+    <t>runner</t>
+  </si>
+  <si>
+    <t>Verwijder de repeating group en zet deze in een aparte tabel.</t>
+  </si>
+  <si>
+    <t>o_id</t>
+  </si>
+  <si>
+    <t>Verwijder de gegevens die niet afhankelijk zijn van de hele sleutel, maar slechts van een gedeelte van de hele sleutel en zet deze in een aparte tabel.</t>
+  </si>
+  <si>
+    <t>Verwijder de gegevens die afhankelijk zijn van niet-sleutelgegevens en zet deze in een aparte tabel.</t>
+  </si>
+  <si>
+    <t>· p_id</t>
+  </si>
+  <si>
+    <t>FAV</t>
+  </si>
+  <si>
+    <t>Gebruiker</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Dennis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -134,11 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -419,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,15 +463,18 @@
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>42845</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -449,8 +484,14 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -460,8 +501,14 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -472,7 +519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -483,7 +530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -494,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -512,132 +559,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>42845</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Documenten/KT2/W 2.1/2-1_genormaliseerde database.xlsx
+++ b/Documenten/KT2/W 2.1/2-1_genormaliseerde database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -58,30 +58,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>· amt</t>
-  </si>
-  <si>
-    <t>· prod</t>
-  </si>
-  <si>
-    <t>· user</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>amt</t>
-  </si>
-  <si>
-    <t>prod</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>tbl_users</t>
   </si>
   <si>
@@ -94,34 +70,64 @@
     <t>tbl_list</t>
   </si>
   <si>
-    <t>runner</t>
-  </si>
-  <si>
     <t>Verwijder de repeating group en zet deze in een aparte tabel.</t>
   </si>
   <si>
-    <t>o_id</t>
-  </si>
-  <si>
     <t>Verwijder de gegevens die niet afhankelijk zijn van de hele sleutel, maar slechts van een gedeelte van de hele sleutel en zet deze in een aparte tabel.</t>
   </si>
   <si>
     <t>Verwijder de gegevens die afhankelijk zijn van niet-sleutelgegevens en zet deze in een aparte tabel.</t>
   </si>
   <si>
-    <t>· p_id</t>
-  </si>
-  <si>
-    <t>FAV</t>
-  </si>
-  <si>
-    <t>Gebruiker</t>
-  </si>
-  <si>
-    <t>Naam</t>
-  </si>
-  <si>
-    <t>Dennis</t>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>tbl_products</t>
+  </si>
+  <si>
+    <t>tbl_u_fav</t>
+  </si>
+  <si>
+    <t>runner_id</t>
+  </si>
+  <si>
+    <t>· item_id</t>
+  </si>
+  <si>
+    <t>· amount</t>
+  </si>
+  <si>
+    <t>· product_id</t>
+  </si>
+  <si>
+    <t>· user_id</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>pname</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>· pname</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Niet van toepassing.</t>
   </si>
 </sst>
 </file>
@@ -145,15 +151,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -161,16 +173,215 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -451,104 +662,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="1">
         <v>42845</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -559,206 +773,555 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="F34" s="6"/>
+      <c r="G34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="10"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="10"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="H44" s="22"/>
+      <c r="I44" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="F45" s="6"/>
+      <c r="G45" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="27"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
